--- a/math_questions_f.xlsx
+++ b/math_questions_f.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -313,6 +313,72 @@
   </si>
   <si>
     <t>Aus einem Fenster im ersten Stock eines Wohnhauses (Höhe 4,80 m) erblickt man die Spitze eines Bürohauses unter dem Höhenwinkel von 36,2° und die Basis unter dem Tiefenwinkel von 4,4°. Wie hoch ist das Bürohaus und wie weit sind Wohnhaus und Bürohaus voneinander entfernt?</t>
+  </si>
+  <si>
+    <t>Beim Übergang von Luft in Wasser wird der Lichtstrahl gebrochen. Der Zusammenhang zwischen Einfallswinkel und Brechungswinkel wird durch das Snelliussche Brechungsgestzt beschrieben. a) Wie groß ist der Brechungswinkel bei einem EInfallswinkel von 45°? FÜr welchen Einfallswinkel ist der Brechungswinkel gerade 30°?  b) Für welchen Einfallswinkel ergänzen sich Einfalls- und Brechungswinkel auf 90°?</t>
+  </si>
+  <si>
+    <t>Wenn bei Sonnenuntergang der Halbmond zu sehen ist, so bilden Erde, Sonne und Mond in etwa ein rechtwinkliges Dreieck. Den Winkel Sonne - Erde - Mond misst man mit 89,86°. Mithilfe der bekannten Entfernung Erde - Mond (384400 km) kann man die Entfernung Sonne - Erde berechnen. Wie wirkt sich ein Fehler von 0,2° bei der Winkelmessung aus?</t>
+  </si>
+  <si>
+    <t>Der Umfang eines Kreises mit dem Durchmesser von exakt 7 m (70 m; 700 m; 7 km) soll auf den Zentimeter genau berechnet werden. Wie viele Nachkommastellen  von Pi muss man dazu mindestens kennen?  b) Handwerker benutzen zur Abschätzung des Kreisumfangs die Faustregel: "Dreifacher Durchmesser plus 5 %". Wie gut ist dieser Näherungswert?</t>
+  </si>
+  <si>
+    <t>Bestimme die zugehörigen Winkelgrößen alpha  (0° &lt; alpha &lt; 180°). In welchem Fall gibt es mehrere Lösungen? a) sin(alpha) = 0,71  b) cos(alpha) = 0,71  c) cos(alpha) = -0,5  d) cos(alpha) = -0,72  e) sin(alpha) = 0,4 und cos(alpha) &gt; 0  f) sin(alpha) = 0,2 und cos(alpha) &lt; 0  g) sin(alpha) = -cos(alpha)</t>
+  </si>
+  <si>
+    <t>a) "Der Satz des Pythagoras ist ein Spezialfall des Kosinussatzes." Was hälst du davon?  b) Kann man den Kosinussatz auch als Veralgemeinerung der Satzes von Pythagoras bezeichnen?</t>
+  </si>
+  <si>
+    <t>Im vorherigen Lernabschnitt hast du neue Formeln für den Flächeninhalt eines Spitzwinkligen Dreiecks bewiesen: A = 1/2c * b * sin(alpha) = 1/2a * b* sin(gamma) = 1/2a * c * sin(beta)  a) Zeige, dass die Flächenformeln auch für ein stumpfwinkliges Dreieick gelten.  b) Mit den neuen Flächenformeln kannst du den Sinussatz beweisen. Schreibe den Beweis ausführlich auf.</t>
+  </si>
+  <si>
+    <t>Schon im Altertum  bestimmte  man durch  Dreieckskonstruktionen die Entfernung eines Schiffes, das auf den Hafen B zusteuerte. Von den Enden der Standlinie AB (Länge bekannt oder messbar) visierte man das Schiff an und bestimmte den Winkel alpha und beta zwischen Standlinie und Visiererlinien. Beschreibe ein Verfahren, mit dem man die Entfernung des Schiffes zum Hafen berechnen kann. Rechne mit AB = 520 m, alpha = 86° und beta = 62°</t>
+  </si>
+  <si>
+    <t>a) Ingmar wohnt 320 m westlich von Anna entfernt. Beide sehen einen Ballon in östlicher Richtung , Ingemar  unter einem Höhenwinkel von alpha = 39°, Anna unter einem Hööhenwinkel von beta = 54°. In welcher Höhe befindet sich die Gondel des Ballons?  b) Ein gleichmäßiger Wind mit einer Geschwindigkeit von 4 km/h treibt den Ballon ohne Höhenverlust in Richtung Osten. Unter welchem Höhenwinkel sieht Anna  den Ballon 10 min später?</t>
+  </si>
+  <si>
+    <t>Es ist sin(1) = ~ 0,84 (cos(1) = ~ 0,54) . Bestimme 5 weitere Winkel, die den gleichen Sinuswert (Kosinuswert) haben.</t>
+  </si>
+  <si>
+    <t>Begründe, dass die Funktion f(x) = sin(x) + cos(x) periodisch ist. Bestimme die Periodenlänge.</t>
+  </si>
+  <si>
+    <t>Bestimme alle Lösungen der Gleichung für x zwischen 0 und 2Pi. a) sin(x) = 0,392  b) cos(x) = -0,714  c) cos(x) = 0,034  d) sin(x) = -0,827  e) cos(x) = 0,452  f) sin(x) = -0,835  g) sin(2x) = 0,392  h) cos(3x) = 0,034</t>
+  </si>
+  <si>
+    <t>Bestimme alle Lösungen der Gleichung für x zwischen -Pi und Pi. a) cos(x) = 0,811  b) sin(x) = -1,347  c) sin(x) = 0,395  d) 5cos(x) = 0,395</t>
+  </si>
+  <si>
+    <t>Fasse die Winkel  mit den gleichen Kosinuswerten zusammen. Es gibt insgesamt nur drei verschiedene Werte. Pi/12  Pi/4  -Pi/12  7Pi/4  13Pi/6  27Pi/12  15Pi/4  23Pi/4  -11Pi/6  -23Pi/12  23Pi/12</t>
+  </si>
+  <si>
+    <t>Erstelle zu den trigonomischen Funktionen Steckbriefe, die möglichst viele Eigenschaften auflisten.</t>
+  </si>
+  <si>
+    <t>Jan behauptet, dass zwei Winkel, die den gleichen Sinuswert haben, auch immer den gleichen Kosinuswert haben. Hat er recht?</t>
+  </si>
+  <si>
+    <t>a) Begründe, dass sin(-x) = -sin(x).  b) Untersuche, on es eine ähnliche Gleichung für due Kosinusfunktion gibt.</t>
+  </si>
+  <si>
+    <t>Für welche Gleichungen gibt es Lösungen im Intervall [9; 2Pi]? Finde alle Lösungen. Eventuell musst du Näherungslösungen bestimmen. a) sin(x) = cos(x)  b) sin(x) - cos(x) = 0  c) cos(x) - sin(x) = 0</t>
+  </si>
+  <si>
+    <t>Welche dieser Gleichungen  sind lösbar? Gib eventuell eine Näherungslösung an. a) sin(x) + cos(x) = 0  b) sin(x) - cos(x) = 1  c) sin(x) + cos(x) = 2  Vergleicht eure Lösungswege und Argumentationen in der Klasse miteinander.</t>
+  </si>
+  <si>
+    <t>Begründe, dass man die Kosinusfunktion durch eine geeignete Verschiebung der Sinusfunktion darstellen kann.</t>
+  </si>
+  <si>
+    <t>Untersuche, welche Auswirkungen die Veränderung von a und b bei dem Graphen der Kosinusfunktion f(x) = a * cos(bx) hat.</t>
+  </si>
+  <si>
+    <t>Wie verändert sich die Höhe h des Ventils am Hinterrad in Abhängigkeitvon von dem zurückgelegten Weg x? a) Finde einen passenden Funktionsgraphen zu h = h(x).</t>
+  </si>
+  <si>
+    <t>TODO S. 128</t>
   </si>
 </sst>
 </file>
@@ -650,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1434,162 +1500,228 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>127</v>
       </c>
